--- a/temp/ExcelAuto.xlsx
+++ b/temp/ExcelAuto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\Documents\UiPath\ExcelAutomation\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B21755E-03B6-4DFE-8E4D-20703D2A2C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92351B1-479E-4774-94E7-96BB013D347B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="320" windowWidth="14400" windowHeight="7550" xr2:uid="{829FF3E1-CC3C-44B8-849F-03B07C4740A3}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{829FF3E1-CC3C-44B8-849F-03B07C4740A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21599CE0-B226-4925-9077-68C9DA652A33}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,6 +474,44 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp/ExcelAuto.xlsx
+++ b/temp/ExcelAuto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\Documents\UiPath\ExcelAutomation\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92351B1-479E-4774-94E7-96BB013D347B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC179EA-851B-4CC7-9CC5-E2470FBAEA12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{829FF3E1-CC3C-44B8-849F-03B07C4740A3}"/>
+    <workbookView minimized="1" xWindow="19520" yWindow="320" windowWidth="14400" windowHeight="7550" xr2:uid="{829FF3E1-CC3C-44B8-849F-03B07C4740A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>vijendra</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -394,122 +397,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21599CE0-B226-4925-9077-68C9DA652A33}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f>SUM(B2:B9)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="C5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
